--- a/data/mammoth-data.xlsx
+++ b/data/mammoth-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589A41E2-74CF-4F35-8791-DAEA3A3F2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314776A2-E740-4E5B-BC60-278B34BC1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{ECF8CFEC-078E-4CF2-905A-F41C2C8516AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="18" xr2:uid="{ECF8CFEC-078E-4CF2-905A-F41C2C8516AE}"/>
   </bookViews>
   <sheets>
     <sheet name="iva_category" sheetId="7" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="3331">
   <si>
     <t>AR-N</t>
   </si>
@@ -10126,7 +10126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -10134,7 +10134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10568,8 +10567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169BF6CC-6228-428B-B740-26A059E21BCC}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="I47" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17660,7 +17659,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18696,15 +18695,19 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36294B40-CAEC-4863-8DCA-7DB26CDC7A0A}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3229</v>
       </c>
@@ -18717,8 +18720,11 @@
       <c r="D1" t="s">
         <v>3287</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18729,11 +18735,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>118.75</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18744,11 +18752,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>299200</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374000</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18761,9 +18771,11 @@
       <c r="D4">
         <v>450</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18776,9 +18788,11 @@
       <c r="D5">
         <v>5280</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18789,11 +18803,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>118.75</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18806,9 +18822,11 @@
       <c r="D7">
         <v>17980</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -18821,9 +18839,11 @@
       <c r="D8">
         <v>482000</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -18836,9 +18856,11 @@
       <c r="D9">
         <v>450</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -18851,9 +18873,11 @@
       <c r="D10">
         <v>412000</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -18864,11 +18888,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>8820</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9800</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -18881,9 +18907,11 @@
       <c r="D12">
         <v>450</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -18894,11 +18922,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>299200</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374000</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -18911,9 +18941,11 @@
       <c r="D14">
         <v>3560</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -18924,11 +18956,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>5699</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6950</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -18941,9 +18975,11 @@
       <c r="D16">
         <v>258000</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -18954,11 +18990,13 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>118.75</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -18971,9 +19009,11 @@
       <c r="D18">
         <v>473</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -18984,11 +19024,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2272</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2840</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -19001,9 +19043,11 @@
       <c r="D20">
         <v>14300</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -19014,11 +19058,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4131</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4860</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -19029,11 +19075,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>10463.200000000001</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11890</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -19046,9 +19094,11 @@
       <c r="D23">
         <v>473</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -19059,11 +19109,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>49300</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58000</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -19076,9 +19128,11 @@
       <c r="D25">
         <v>412000</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -19089,11 +19143,13 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>118.75</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -19106,9 +19162,11 @@
       <c r="D27">
         <v>4600</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -19121,9 +19179,11 @@
       <c r="D28">
         <v>4750</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -19136,9 +19196,11 @@
       <c r="D29">
         <v>482000</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -19149,11 +19211,13 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>2272</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2840</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
@@ -19166,9 +19230,11 @@
       <c r="D31">
         <v>450</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -19179,11 +19245,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>45050</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53000</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -19194,11 +19262,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>299200</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374000</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -19209,11 +19279,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>273600</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>342000</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -19226,9 +19298,11 @@
       <c r="D35">
         <v>423000</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -19239,11 +19313,13 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>118.75</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -19256,9 +19332,11 @@
       <c r="D37">
         <v>412000</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -19269,11 +19347,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>8820</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9800</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -19284,11 +19364,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>45050</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53000</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -19301,9 +19383,11 @@
       <c r="D40">
         <v>6700</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30</v>
       </c>
@@ -19316,9 +19400,11 @@
       <c r="D41">
         <v>450</v>
       </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>30</v>
       </c>
@@ -19329,11 +19415,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>4131</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4860</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>30</v>
       </c>
@@ -19344,11 +19432,13 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>118.75</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>31</v>
       </c>
@@ -19359,11 +19449,13 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>21844</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25400</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>32</v>
       </c>
@@ -19376,9 +19468,11 @@
       <c r="D45">
         <v>4750</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>33</v>
       </c>
@@ -19389,11 +19483,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>299200</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374000</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>34</v>
       </c>
@@ -19406,9 +19502,11 @@
       <c r="D47">
         <v>5960</v>
       </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35</v>
       </c>
@@ -19419,11 +19517,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>2827.5</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3770</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>36</v>
       </c>
@@ -19436,9 +19536,11 @@
       <c r="D49">
         <v>6700</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>37</v>
       </c>
@@ -19449,11 +19551,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>11223</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12900</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>38</v>
       </c>
@@ -19466,9 +19570,11 @@
       <c r="D51">
         <v>482000</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>38</v>
       </c>
@@ -19479,11 +19585,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2304</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2880</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>39</v>
       </c>
@@ -19494,11 +19602,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>10044</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12400</v>
+      </c>
+      <c r="E53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>40</v>
       </c>
@@ -19511,9 +19621,11 @@
       <c r="D54">
         <v>412000</v>
       </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>41</v>
       </c>
@@ -19524,11 +19636,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>45050</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53000</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>41</v>
       </c>
@@ -19541,9 +19655,11 @@
       <c r="D56">
         <v>473</v>
       </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>42</v>
       </c>
@@ -19556,9 +19672,11 @@
       <c r="D57">
         <v>9090</v>
       </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>43</v>
       </c>
@@ -19571,9 +19689,11 @@
       <c r="D58">
         <v>475000</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44</v>
       </c>
@@ -19586,9 +19706,11 @@
       <c r="D59">
         <v>6700</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>45</v>
       </c>
@@ -19599,11 +19721,13 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>118.75</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>46</v>
       </c>
@@ -19614,11 +19738,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>299200</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374000</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>46</v>
       </c>
@@ -19631,9 +19757,11 @@
       <c r="D62">
         <v>482000</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>47</v>
       </c>
@@ -19646,9 +19774,11 @@
       <c r="D63">
         <v>42000</v>
       </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>48</v>
       </c>
@@ -19661,9 +19791,11 @@
       <c r="D64">
         <v>473</v>
       </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>48</v>
       </c>
@@ -19676,9 +19808,11 @@
       <c r="D65">
         <v>24890</v>
       </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>49</v>
       </c>
@@ -19691,9 +19825,11 @@
       <c r="D66">
         <v>6280</v>
       </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50</v>
       </c>
@@ -19706,7 +19842,9 @@
       <c r="D67">
         <v>19200</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="E67">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72166,10 +72304,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68830A-5EF5-4839-979F-109CCC293F31}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72996,6 +73134,12 @@
       </c>
       <c r="G35">
         <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>SUM(F2:F35)</f>
+        <v>4558485.95</v>
       </c>
     </row>
   </sheetData>
@@ -82361,7 +82505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA71222-FC77-48CF-8076-5B337789DA43}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
@@ -88663,7 +88807,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/mammoth-data.xlsx
+++ b/data/mammoth-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314776A2-E740-4E5B-BC60-278B34BC1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D01D53-CA0E-4974-91F2-0C1A1818599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="18" xr2:uid="{ECF8CFEC-078E-4CF2-905A-F41C2C8516AE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ECF8CFEC-078E-4CF2-905A-F41C2C8516AE}"/>
   </bookViews>
   <sheets>
     <sheet name="iva_category" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">invoice!$A$1:$G$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">order!$A$1:$F$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">order_detail!$A$1:$D$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">product!$A$1:$N$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">product!$A$1:$M$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">provider!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">stock!$A$1:$B$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">subscription!$A$1:$B$50</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="3331">
   <si>
     <t>AR-N</t>
   </si>
@@ -10451,7 +10451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5B62A-C067-4DBD-AD33-6B096EA823FB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -10568,7 +10568,7 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10927,6 +10927,9 @@
       <c r="C9" s="4" t="s">
         <v>2652</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E9" s="4">
         <v>22</v>
       </c>
@@ -11129,6 +11132,9 @@
       <c r="C14" s="4" t="s">
         <v>2660</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E14" s="4">
         <v>22</v>
       </c>
@@ -11905,6 +11911,9 @@
       <c r="C33" s="4" t="s">
         <v>2687</v>
       </c>
+      <c r="D33" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E33" s="4">
         <v>46</v>
       </c>
@@ -12025,6 +12034,9 @@
       <c r="C36" s="4" t="s">
         <v>2690</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E36" s="4">
         <v>31</v>
       </c>
@@ -12104,6 +12116,9 @@
       <c r="C38" s="4" t="s">
         <v>2693</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E38" s="4">
         <v>19</v>
       </c>
@@ -12183,6 +12198,9 @@
       <c r="C40" s="4" t="s">
         <v>2696</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E40" s="4">
         <v>46</v>
       </c>
@@ -12508,6 +12526,9 @@
       <c r="C48" s="4" t="s">
         <v>2712</v>
       </c>
+      <c r="D48" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E48" s="4">
         <v>5</v>
       </c>
@@ -12546,6 +12567,9 @@
       <c r="C49" s="4" t="s">
         <v>2714</v>
       </c>
+      <c r="D49" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E49" s="4">
         <v>21</v>
       </c>
@@ -12912,6 +12936,9 @@
       <c r="C58" s="4" t="s">
         <v>2727</v>
       </c>
+      <c r="D58" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E58" s="4">
         <v>45</v>
       </c>
@@ -13401,6 +13428,9 @@
       <c r="C70" s="4" t="s">
         <v>2749</v>
       </c>
+      <c r="D70" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E70" s="4">
         <v>18</v>
       </c>
@@ -13521,6 +13551,9 @@
       <c r="C73" s="4" t="s">
         <v>2752</v>
       </c>
+      <c r="D73" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E73" s="4">
         <v>2</v>
       </c>
@@ -13846,6 +13879,9 @@
       <c r="C81" s="4" t="s">
         <v>2764</v>
       </c>
+      <c r="D81" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E81" s="4">
         <v>15</v>
       </c>
@@ -14581,6 +14617,9 @@
       <c r="C99" s="4" t="s">
         <v>2785</v>
       </c>
+      <c r="D99" s="4" t="s">
+        <v>3330</v>
+      </c>
       <c r="E99" s="4">
         <v>46</v>
       </c>
@@ -14741,6 +14780,9 @@
       </c>
       <c r="C103" s="4" t="s">
         <v>2790</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>3330</v>
       </c>
       <c r="E103" s="4">
         <v>44</v>
@@ -18697,7 +18739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36294B40-CAEC-4863-8DCA-7DB26CDC7A0A}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -72304,10 +72346,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68830A-5EF5-4839-979F-109CCC293F31}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73134,12 +73176,6 @@
       </c>
       <c r="G35">
         <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <f>SUM(F2:F35)</f>
-        <v>4558485.95</v>
       </c>
     </row>
   </sheetData>
@@ -88807,7 +88843,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88985,7 +89021,9 @@
       <c r="E6" s="2" t="s">
         <v>2383</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>2384</v>
       </c>
@@ -89244,7 +89282,9 @@
       <c r="E15" s="2" t="s">
         <v>2435</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>2436</v>
       </c>
@@ -89271,7 +89311,9 @@
       <c r="E16" s="2" t="s">
         <v>2440</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>2441</v>
       </c>
@@ -89298,7 +89340,9 @@
       <c r="E17" s="2" t="s">
         <v>2445</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>2446</v>
       </c>
@@ -89412,7 +89456,9 @@
       <c r="E21" s="2" t="s">
         <v>2468</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>2469</v>
       </c>
@@ -89468,7 +89514,9 @@
       <c r="E23" s="2" t="s">
         <v>2479</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>2480</v>
       </c>
@@ -89495,7 +89543,9 @@
       <c r="E24" s="2" t="s">
         <v>2484</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>2485</v>
       </c>
@@ -89522,7 +89572,9 @@
       <c r="E25" s="2" t="s">
         <v>2489</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>2490</v>
       </c>
@@ -89578,7 +89630,9 @@
       <c r="E27" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>2501</v>
       </c>
@@ -89663,7 +89717,9 @@
       <c r="E30" s="2" t="s">
         <v>2517</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>2518</v>
       </c>
@@ -89690,7 +89746,9 @@
       <c r="E31" s="2" t="s">
         <v>2522</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>2523</v>
       </c>
@@ -89717,7 +89775,9 @@
       <c r="E32" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>2528</v>
       </c>
@@ -90034,7 +90094,9 @@
       <c r="E43" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>2593</v>
       </c>
@@ -90148,7 +90210,9 @@
       <c r="E47" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G47" s="2" t="s">
         <v>2616</v>
       </c>
@@ -90204,7 +90268,9 @@
       <c r="E49" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G49" s="2" t="s">
         <v>2626</v>
       </c>
@@ -90260,7 +90326,9 @@
       <c r="E51" s="2" t="s">
         <v>2635</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>3330</v>
+      </c>
       <c r="G51" s="2" t="s">
         <v>2636</v>
       </c>
